--- a/public/template/delivery_template.xlsx
+++ b/public/template/delivery_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD412F-5B72-4A0D-AA85-39C3D61B5A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A697A-FFCE-40B4-9C79-DD27EB90B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -37,17 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No.：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>123456-123</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社サンプル　〇〇支社</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -58,68 +50,6 @@
     <rPh sb="2" eb="3">
       <t>ナカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社 日本サンプル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〒 123-1234</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都世田谷区〇〇〇 1-2-3</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>セタガヤ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業部　担当者：△△  □□ 様</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都杉並区〇〇〇１－２－３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△△△ビル １Ｆ １２３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">☎ 03-1234-5678  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>📠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 03-1234-5679</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>✉ info@japansample.com</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -252,7 +182,7 @@
     <numFmt numFmtId="182" formatCode="&quot;(&quot;##&quot;%)&quot;"/>
     <numFmt numFmtId="183" formatCode="#,###;\-#,###"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,12 +252,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -672,10 +596,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -696,14 +620,14 @@
     <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -719,16 +643,16 @@
     <xf numFmtId="5" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -756,7 +680,109 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,108 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,7 +1301,7 @@
   <dimension ref="A1:EC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1399,12 +1323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="49" t="s">
-        <v>24</v>
+      <c r="B1" s="83" t="s">
+        <v>14</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1525,10 +1449,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1538,19 +1462,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="51"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1558,12 +1480,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
-      <c r="M3" s="52">
-        <v>48203</v>
-      </c>
-      <c r="N3" s="52"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1587,63 +1507,53 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
-        <v>2</v>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="89" t="s">
+        <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:133" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="12"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1655,17 +1565,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="J8" s="13"/>
       <c r="K8" s="12"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1675,19 +1581,17 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
-        <v>26</v>
+      <c r="B9" s="70" t="s">
+        <v>16</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="J9" s="13"/>
       <c r="K9" s="12"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1697,17 +1601,15 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="J10" s="14"/>
       <c r="K10" s="12"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1717,22 +1619,17 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="60" t="s">
-        <v>25</v>
+      <c r="B11" s="71" t="s">
+        <v>15</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="66" t="e">
-        <f>M44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="J11" s="15"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1742,13 +1639,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1795,18 +1692,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1927,28 +1824,28 @@
     </row>
     <row r="16" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="18" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
-      <c r="C16" s="70" t="s">
-        <v>13</v>
+      <c r="C16" s="81" t="s">
+        <v>3</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71" t="s">
-        <v>14</v>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82" t="s">
+        <v>4</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71" t="s">
-        <v>15</v>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82" t="s">
+        <v>5</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71" t="s">
-        <v>16</v>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82" t="s">
+        <v>6</v>
       </c>
-      <c r="N16" s="71"/>
+      <c r="N16" s="82"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -2071,48 +1968,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="69">
+        <f>I17*K17</f>
+        <v>0</v>
       </c>
-      <c r="D17" s="56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="41" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58" t="e">
-        <f>I17*K17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" s="58"/>
+      <c r="N17" s="69"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2236,48 +2106,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="72" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60">
+        <f>I18*K18</f>
+        <v>0</v>
       </c>
-      <c r="D18" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="74" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75" t="e">
-        <f>I18*K18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" s="75"/>
+      <c r="N18" s="60"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2401,48 +2244,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="76" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C19" s="66"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62">
+        <f t="shared" ref="M19:M22" si="0">I19*K19</f>
+        <v>0</v>
       </c>
-      <c r="D19" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="78" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57" t="e">
-        <f t="shared" ref="M19:M22" si="0">I19*K19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N19" s="57"/>
+      <c r="N19" s="62"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2566,48 +2382,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="72" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="D20" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="74" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" s="75"/>
+      <c r="N20" s="60"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2731,48 +2520,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="76" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C21" s="66"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="D21" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="78" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" s="57"/>
+      <c r="N21" s="62"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2896,48 +2658,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="72" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="D22" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F22" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="74" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N22" s="75"/>
+      <c r="N22" s="60"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -3061,48 +2796,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="76" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C23" s="66"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62">
+        <f>I23*K23</f>
+        <v>0</v>
       </c>
-      <c r="D23" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="77" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="78" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57" t="e">
-        <f>I23*K23</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N23" s="57"/>
+      <c r="N23" s="62"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -3226,48 +2934,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60">
+        <f>I24*K24</f>
+        <v>0</v>
       </c>
-      <c r="D24" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75" t="e">
-        <f>I24*K24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N24" s="75"/>
+      <c r="N24" s="60"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -3391,48 +3072,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62">
+        <f t="shared" ref="M25:M40" si="2">I25*K25</f>
+        <v>0</v>
       </c>
-      <c r="D25" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57" t="e">
-        <f t="shared" ref="M25:M40" si="2">I25*K25</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N25" s="57"/>
+      <c r="N25" s="62"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3556,48 +3210,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D26" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N26" s="75"/>
+      <c r="N26" s="60"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3721,48 +3348,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D27" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K27" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N27" s="57"/>
+      <c r="N27" s="62"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3886,48 +3486,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D28" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N28" s="75"/>
+      <c r="N28" s="60"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -4051,48 +3624,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D29" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="62"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -4216,48 +3762,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D30" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J30" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K30" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N30" s="75"/>
+      <c r="N30" s="60"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -4381,48 +3900,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D31" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N31" s="57"/>
+      <c r="N31" s="62"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -4546,48 +4038,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D32" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" s="75"/>
+      <c r="N32" s="60"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4711,48 +4176,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D33" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N33" s="57"/>
+      <c r="N33" s="62"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4876,48 +4314,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D34" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F34" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J34" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" s="75"/>
+      <c r="N34" s="60"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -5041,48 +4452,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D35" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N35" s="57"/>
+      <c r="N35" s="62"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -5206,48 +4590,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D36" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F36" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J36" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N36" s="75"/>
+      <c r="N36" s="60"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -5371,48 +4728,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D37" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E37" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F37" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G37" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I37" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J37" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K37" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N37" s="57"/>
+      <c r="N37" s="62"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -5536,48 +4866,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D38" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F38" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G38" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="79" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I38" s="46" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J38" s="42" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K38" s="75" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N38" s="75"/>
+      <c r="N38" s="60"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -5701,48 +5004,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D39" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F39" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G39" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="80" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I39" s="45" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J39" s="43" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N39" s="57"/>
+      <c r="N39" s="62"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5866,48 +5142,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="D40" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F40" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G40" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="81" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I40" s="47" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J40" s="44" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" s="82" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N40" s="82"/>
+      <c r="N40" s="57"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -6159,26 +5408,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="83" t="s">
-        <v>17</v>
+      <c r="J42" s="58" t="s">
+        <v>7</v>
       </c>
-      <c r="K42" s="83"/>
+      <c r="K42" s="58"/>
       <c r="L42" s="27" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
-      <c r="M42" s="84" t="e">
+      <c r="M42" s="52">
         <f>SUM(M17:N40)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="N42" s="84"/>
+      <c r="N42" s="52"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -6298,26 +5547,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="85" t="s">
-        <v>19</v>
+      <c r="J43" s="51" t="s">
+        <v>9</v>
       </c>
-      <c r="K43" s="85"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="84" t="e">
+      <c r="M43" s="52">
         <f>INT(M42*L43/100)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="N43" s="84"/>
+      <c r="N43" s="52"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -6437,26 +5686,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="87" t="s">
-        <v>20</v>
+      <c r="J44" s="54" t="s">
+        <v>10</v>
       </c>
-      <c r="K44" s="87"/>
+      <c r="K44" s="54"/>
       <c r="L44" s="30" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
-      <c r="M44" s="88" t="e">
+      <c r="M44" s="55">
         <f>M42+M43</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
-      <c r="N44" s="88"/>
+      <c r="N44" s="55"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -6710,20 +5959,20 @@
     <row r="46" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="36" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -6826,19 +6075,19 @@
     </row>
     <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6941,19 +6190,19 @@
     </row>
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
-      <c r="B48" s="48"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -7056,19 +6305,19 @@
     </row>
     <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
-      <c r="B49" s="48"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -7171,19 +6420,19 @@
     </row>
     <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
-      <c r="B50" s="48"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -7508,14 +6757,85 @@
       <c r="DK52"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="D46:N50"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:N6"/>
+  <mergeCells count="98">
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -7530,84 +6850,12 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/delivery_template.xlsx
+++ b/public/template/delivery_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A697A-FFCE-40B4-9C79-DD27EB90B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13332DD-3DE4-47C3-AD3E-0C7662D703D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
@@ -680,20 +680,122 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -702,108 +804,6 @@
     </xf>
     <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,12 +1323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1462,17 +1462,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1482,8 +1482,8 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1507,39 +1507,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="89" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1581,15 +1581,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1619,15 +1619,15 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1692,18 +1692,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1826,26 +1826,26 @@
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82" t="s">
+      <c r="J16" s="72"/>
+      <c r="K16" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82" t="s">
+      <c r="L16" s="72"/>
+      <c r="M16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="72"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1968,21 +1968,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="45"/>
       <c r="J17" s="41"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="69">
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="69"/>
+      <c r="N17" s="59"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2106,21 +2106,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="46"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60">
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="60"/>
+      <c r="N18" s="76"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2244,21 +2244,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="67"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62">
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="62"/>
+      <c r="N19" s="58"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2382,21 +2382,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="46"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60">
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="60"/>
+      <c r="N20" s="76"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2520,21 +2520,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="67"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="45"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="62"/>
+      <c r="N21" s="58"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2658,21 +2658,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
       <c r="I22" s="46"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60">
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="60"/>
+      <c r="N22" s="76"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2796,21 +2796,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="45"/>
       <c r="J23" s="43"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62">
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="62"/>
+      <c r="N23" s="58"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2934,21 +2934,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="46"/>
       <c r="J24" s="42"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60">
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="60"/>
+      <c r="N24" s="76"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -3072,21 +3072,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="45"/>
       <c r="J25" s="43"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62">
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="62"/>
+      <c r="N25" s="58"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3210,21 +3210,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="46"/>
       <c r="J26" s="42"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60">
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="60"/>
+      <c r="N26" s="76"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3348,21 +3348,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="45"/>
       <c r="J27" s="43"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62">
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="62"/>
+      <c r="N27" s="58"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3486,21 +3486,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="46"/>
       <c r="J28" s="42"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60">
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="60"/>
+      <c r="N28" s="76"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3624,21 +3624,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="45"/>
       <c r="J29" s="43"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62">
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="62"/>
+      <c r="N29" s="58"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3762,21 +3762,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="46"/>
       <c r="J30" s="42"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60">
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="60"/>
+      <c r="N30" s="76"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3900,21 +3900,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="45"/>
       <c r="J31" s="43"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62">
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="62"/>
+      <c r="N31" s="58"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -4038,21 +4038,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="46"/>
       <c r="J32" s="42"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60">
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="60"/>
+      <c r="N32" s="76"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4176,21 +4176,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="45"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62">
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="62"/>
+      <c r="N33" s="58"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4314,21 +4314,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
       <c r="I34" s="46"/>
       <c r="J34" s="42"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60">
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="60"/>
+      <c r="N34" s="76"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4452,21 +4452,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
       <c r="I35" s="45"/>
       <c r="J35" s="43"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62">
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="62"/>
+      <c r="N35" s="58"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4590,21 +4590,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
       <c r="I36" s="46"/>
       <c r="J36" s="42"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60">
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="60"/>
+      <c r="N36" s="76"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4728,21 +4728,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
       <c r="I37" s="45"/>
       <c r="J37" s="43"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62">
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="62"/>
+      <c r="N37" s="58"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4866,21 +4866,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
       <c r="I38" s="46"/>
       <c r="J38" s="42"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60">
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="60"/>
+      <c r="N38" s="76"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -5004,21 +5004,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
       <c r="I39" s="45"/>
       <c r="J39" s="43"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62">
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="62"/>
+      <c r="N39" s="58"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5142,21 +5142,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
       <c r="I40" s="47"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57">
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="57"/>
+      <c r="N40" s="83"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5408,26 +5408,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="58" t="s">
+      <c r="J42" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="58"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="52">
+      <c r="M42" s="85">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="52"/>
+      <c r="N42" s="85"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5547,26 +5547,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="51" t="s">
+      <c r="J43" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="52">
+      <c r="M43" s="85">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="52"/>
+      <c r="N43" s="85"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5686,26 +5686,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="54" t="s">
+      <c r="J44" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="54"/>
+      <c r="K44" s="88"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="55">
+      <c r="M44" s="89">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="55"/>
+      <c r="N44" s="89"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5962,17 +5962,17 @@
         <v>12</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -6075,19 +6075,19 @@
     </row>
     <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6190,19 +6190,19 @@
     </row>
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6305,19 +6305,19 @@
     </row>
     <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
-      <c r="B49" s="49"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
-      <c r="B50" s="49"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -6757,7 +6757,7 @@
       <c r="DK52"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="99">
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>
@@ -6836,6 +6836,18 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D46:N50"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:N6"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -6845,17 +6857,6 @@
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/delivery_template.xlsx
+++ b/public/template/delivery_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13332DD-3DE4-47C3-AD3E-0C7662D703D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DE378-24DB-4227-A913-A3E3D9C5D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="12105" yWindow="3360" windowWidth="11670" windowHeight="10830" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="納品書" sheetId="5" r:id="rId1"/>
+    <sheet name="納品書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$A$1:$P$52</definedName>
@@ -136,16 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発行日：</t>
-    <rPh sb="0" eb="2">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>納　品　書</t>
     <rPh sb="0" eb="1">
       <t>オサメ</t>
@@ -159,11 +149,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計金額</t>
+    <t>下記の通り納品申し上げます。</t>
+    <rPh sb="5" eb="7">
+      <t>ノウヒン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記の通り納品申し上げます。</t>
+    <t>納品日：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,17 +655,8 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,7 +682,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -804,6 +807,9 @@
     </xf>
     <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,121 +848,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B73B2B-A768-4A34-AEEF-7AAF62CA733D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="13954125"/>
-          <a:ext cx="8496300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29620A6B-9322-4913-A5AD-13F73EBBDC82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="13954125"/>
-          <a:ext cx="8496300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3C5048-9735-4E42-9235-F1E9AD0E2050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D0203B-BE5E-4529-A1BF-579893CC2B66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6FAC4F-B93A-449E-BD90-8A8422390A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF67BB-90A5-4DD6-B4B5-9AAF97C666BF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1323,12 +1215,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1449,10 +1341,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1462,17 +1354,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1480,10 +1372,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+        <v>15</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1507,39 +1399,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="56" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1581,15 +1473,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="B9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1601,13 +1493,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1619,15 +1511,18 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="65">
+        <f>M44</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1639,13 +1534,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1692,18 +1587,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1826,26 +1721,26 @@
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72" t="s">
+      <c r="J16" s="70"/>
+      <c r="K16" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72" t="s">
+      <c r="L16" s="70"/>
+      <c r="M16" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="72"/>
+      <c r="N16" s="70"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1968,21 +1863,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57">
         <f>I17*K17</f>
         <v>0</v>
       </c>
-      <c r="N17" s="59"/>
+      <c r="N17" s="57"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2106,21 +2001,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76">
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74">
         <f>I18*K18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="76"/>
+      <c r="N18" s="74"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2244,21 +2139,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58">
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56">
         <f t="shared" ref="M19:M22" si="0">I19*K19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="58"/>
+      <c r="N19" s="56"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2382,21 +2277,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="76"/>
+      <c r="N20" s="74"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2520,21 +2415,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58">
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="58"/>
+      <c r="N21" s="56"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2658,21 +2553,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76">
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="76"/>
+      <c r="N22" s="74"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2796,21 +2691,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58">
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56">
         <f>I23*K23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="58"/>
+      <c r="N23" s="56"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2934,21 +2829,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76">
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74">
         <f>I24*K24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="76"/>
+      <c r="N24" s="74"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -3072,21 +2967,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58">
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56">
         <f t="shared" ref="M25:M40" si="2">I25*K25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="58"/>
+      <c r="N25" s="56"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3210,21 +3105,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76">
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="76"/>
+      <c r="N26" s="74"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3348,21 +3243,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58">
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="56"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3486,21 +3381,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76">
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="76"/>
+      <c r="N28" s="74"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3624,21 +3519,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58">
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="58"/>
+      <c r="N29" s="56"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3762,21 +3657,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76">
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="76"/>
+      <c r="N30" s="74"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3900,21 +3795,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58">
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="58"/>
+      <c r="N31" s="56"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -4038,21 +3933,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76">
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="76"/>
+      <c r="N32" s="74"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4176,21 +4071,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58">
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="58"/>
+      <c r="N33" s="56"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4314,21 +4209,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76">
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="76"/>
+      <c r="N34" s="74"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4452,21 +4347,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58">
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="58"/>
+      <c r="N35" s="56"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4590,21 +4485,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76">
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="76"/>
+      <c r="N36" s="74"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4728,21 +4623,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58">
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N37" s="58"/>
+      <c r="N37" s="56"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4866,21 +4761,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="76"/>
+      <c r="N38" s="74"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -5004,21 +4899,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="58"/>
+      <c r="N39" s="56"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5142,21 +5037,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83">
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N40" s="83"/>
+      <c r="N40" s="81"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5408,26 +5303,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="84" t="s">
+      <c r="J42" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="84"/>
+      <c r="K42" s="82"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="85">
+      <c r="M42" s="83">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="85"/>
+      <c r="N42" s="83"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5547,26 +5442,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="86" t="s">
+      <c r="J43" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="86"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="85">
+      <c r="M43" s="83">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="85"/>
+      <c r="N43" s="83"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5686,26 +5581,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="88" t="s">
+      <c r="J44" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="88"/>
+      <c r="K44" s="86"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="89">
+      <c r="M44" s="87">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="89"/>
+      <c r="N44" s="87"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5961,18 +5856,17 @@
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -6075,19 +5969,19 @@
     </row>
     <row r="47" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6189,20 +6083,19 @@
       <c r="DK47"/>
     </row>
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="13"/>
-      <c r="B48" s="48"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6302,22 +6195,39 @@
       <c r="DI48"/>
       <c r="DJ48"/>
       <c r="DK48"/>
+      <c r="DL48"/>
+      <c r="DM48"/>
+      <c r="DN48"/>
+      <c r="DO48"/>
+      <c r="DP48"/>
+      <c r="DQ48"/>
+      <c r="DR48"/>
+      <c r="DS48"/>
+      <c r="DT48"/>
+      <c r="DU48"/>
+      <c r="DV48"/>
+      <c r="DW48"/>
+      <c r="DX48"/>
+      <c r="DY48"/>
+      <c r="DZ48"/>
+      <c r="EA48"/>
+      <c r="EB48"/>
+      <c r="EC48"/>
     </row>
-    <row r="49" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="13"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
+    <row r="49" spans="2:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -6417,22 +6327,40 @@
       <c r="DI49"/>
       <c r="DJ49"/>
       <c r="DK49"/>
+      <c r="DL49"/>
+      <c r="DM49"/>
+      <c r="DN49"/>
+      <c r="DO49"/>
+      <c r="DP49"/>
+      <c r="DQ49"/>
+      <c r="DR49"/>
+      <c r="DS49"/>
+      <c r="DT49"/>
+      <c r="DU49"/>
+      <c r="DV49"/>
+      <c r="DW49"/>
+      <c r="DX49"/>
+      <c r="DY49"/>
+      <c r="DZ49"/>
+      <c r="EA49"/>
+      <c r="EB49"/>
+      <c r="EC49"/>
     </row>
-    <row r="50" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="13"/>
-      <c r="B50" s="48"/>
+    <row r="50" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="36"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="46"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
@@ -6532,21 +6460,40 @@
       <c r="DI50"/>
       <c r="DJ50"/>
       <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
     </row>
-    <row r="51" spans="1:115" s="1" customFormat="1" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="47"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
@@ -6646,16 +6593,27 @@
       <c r="DI51"/>
       <c r="DJ51"/>
       <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
+      <c r="DQ51"/>
+      <c r="DR51"/>
+      <c r="DS51"/>
+      <c r="DT51"/>
+      <c r="DU51"/>
+      <c r="DV51"/>
+      <c r="DW51"/>
+      <c r="DX51"/>
+      <c r="DY51"/>
+      <c r="DZ51"/>
+      <c r="EA51"/>
+      <c r="EB51"/>
+      <c r="EC51"/>
     </row>
-    <row r="52" spans="1:115" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="31"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="16"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
+    <row r="52" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D52" s="37"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
@@ -6755,9 +6713,28 @@
       <c r="DI52"/>
       <c r="DJ52"/>
       <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="D46:N51"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>
@@ -6836,18 +6813,6 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D46:N50"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:N6"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -6857,6 +6822,17 @@
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/public/template/delivery_template.xlsx
+++ b/public/template/delivery_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reactApp-doccustom\my-app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syou5\wSystem\my-app\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DE378-24DB-4227-A913-A3E3D9C5D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828D0DB7-E03C-42DD-B52D-EDDA4D92B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="3360" windowWidth="11670" windowHeight="10830" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
+    <workbookView xWindow="3000" yWindow="1680" windowWidth="21600" windowHeight="11295" xr2:uid="{96C032F3-11F8-4FBF-AEA1-96FDB20944F5}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="1" r:id="rId1"/>
@@ -688,6 +688,108 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,108 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,12 +1215,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="2" spans="1:133" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1354,17 +1354,17 @@
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1374,8 +1374,8 @@
       <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
@@ -1399,39 +1399,39 @@
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="54" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -1473,15 +1473,15 @@
     </row>
     <row r="9" spans="1:133" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="1"/>
       <c r="J9" s="13"/>
       <c r="K9" s="12"/>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="10" spans="1:133" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="1"/>
       <c r="J10" s="14"/>
       <c r="K10" s="12"/>
@@ -1511,18 +1511,18 @@
     </row>
     <row r="11" spans="1:133" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="65">
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="76">
         <f>M44</f>
         <v>0</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="1"/>
       <c r="J11" s="15"/>
       <c r="K11" s="1"/>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="12" spans="1:133" ht="19.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1587,18 +1587,18 @@
     </row>
     <row r="15" spans="1:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="17"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1721,26 +1721,26 @@
       <c r="B16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70" t="s">
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70" t="s">
+      <c r="J16" s="81"/>
+      <c r="K16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70" t="s">
+      <c r="L16" s="81"/>
+      <c r="M16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="70"/>
+      <c r="N16" s="81"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1863,21 +1863,21 @@
       <c r="B17" s="19">
         <v>1</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="42"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57">
-        <f>I17*K17</f>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="68">
+        <f>IF(I17*K17=0, K17, I17*K17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="57"/>
+      <c r="N17" s="68"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -2001,21 +2001,21 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="43"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74">
-        <f>I18*K18</f>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59">
+        <f>IF(I18*K18=0, K18, I18*K18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="74"/>
+      <c r="N18" s="59"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -2139,21 +2139,21 @@
         <f>B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="42"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56">
-        <f t="shared" ref="M19:M22" si="0">I19*K19</f>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61">
+        <f>IF(I19*K19=0, K19, I19*K19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="56"/>
+      <c r="N19" s="61"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -2277,21 +2277,21 @@
         <f>B19+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="43"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74">
-        <f t="shared" si="0"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59">
+        <f t="shared" ref="M20:M39" si="0">IF(I20*K20=0, K20, I20*K20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="74"/>
+      <c r="N20" s="59"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -2415,21 +2415,21 @@
         <f t="shared" ref="B21:B40" si="1">B20+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="42"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56">
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="61"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -2553,21 +2553,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="73"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="43"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74">
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N22" s="74"/>
+      <c r="N22" s="59"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
@@ -2691,21 +2691,21 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="42"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56">
-        <f>I23*K23</f>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="56"/>
+      <c r="N23" s="61"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -2829,21 +2829,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="43"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74">
-        <f>I24*K24</f>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N24" s="74"/>
+      <c r="N24" s="59"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -2967,21 +2967,21 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="42"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56">
-        <f t="shared" ref="M25:M40" si="2">I25*K25</f>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N25" s="56"/>
+      <c r="N25" s="61"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -3105,21 +3105,21 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="43"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74">
-        <f t="shared" si="2"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="74"/>
+      <c r="N26" s="59"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -3243,21 +3243,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="42"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56">
-        <f t="shared" si="2"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N27" s="56"/>
+      <c r="N27" s="61"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -3381,21 +3381,21 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="43"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74">
-        <f t="shared" si="2"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N28" s="74"/>
+      <c r="N28" s="59"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -3519,21 +3519,21 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="42"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56">
-        <f t="shared" si="2"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="56"/>
+      <c r="N29" s="61"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -3657,21 +3657,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="43"/>
       <c r="J30" s="39"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74">
-        <f t="shared" si="2"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="74"/>
+      <c r="N30" s="59"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
@@ -3795,21 +3795,21 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="42"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56">
-        <f t="shared" si="2"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="56"/>
+      <c r="N31" s="61"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
@@ -3933,21 +3933,21 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="43"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74">
-        <f t="shared" si="2"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N32" s="74"/>
+      <c r="N32" s="59"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
@@ -4071,21 +4071,21 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="42"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56">
-        <f t="shared" si="2"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="56"/>
+      <c r="N33" s="61"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -4209,21 +4209,21 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="43"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74">
-        <f t="shared" si="2"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="74"/>
+      <c r="N34" s="59"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
@@ -4347,21 +4347,21 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="42"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56">
-        <f t="shared" si="2"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="56"/>
+      <c r="N35" s="61"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -4485,21 +4485,21 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
       <c r="I36" s="43"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74">
-        <f t="shared" si="2"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N36" s="74"/>
+      <c r="N36" s="59"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
@@ -4623,21 +4623,21 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="42"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56">
-        <f t="shared" si="2"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="56"/>
+      <c r="N37" s="61"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -4761,21 +4761,21 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
       <c r="I38" s="43"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74">
-        <f t="shared" si="2"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" s="74"/>
+      <c r="N38" s="59"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
@@ -4899,21 +4899,21 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="42"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56">
-        <f t="shared" si="2"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39" s="56"/>
+      <c r="N39" s="61"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
@@ -5037,21 +5037,21 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
       <c r="I40" s="44"/>
       <c r="J40" s="41"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81">
-        <f t="shared" si="2"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56">
+        <f t="shared" ref="M25:M40" si="2">I40*K40</f>
         <v>0</v>
       </c>
-      <c r="N40" s="81"/>
+      <c r="N40" s="56"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
@@ -5182,7 +5182,10 @@
       <c r="J41" s="24"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="25"/>
+      <c r="M41" s="25">
+        <f>IF(I40*K40=0, K40, I40*K40)</f>
+        <v>0</v>
+      </c>
       <c r="N41" s="25"/>
       <c r="Q41"/>
       <c r="R41"/>
@@ -5303,26 +5306,26 @@
       <c r="EC41"/>
     </row>
     <row r="42" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="82" t="s">
+      <c r="J42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="82"/>
+      <c r="K42" s="57"/>
       <c r="L42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="83">
+      <c r="M42" s="51">
         <f>SUM(M17:N40)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="83"/>
+      <c r="N42" s="51"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
@@ -5442,26 +5445,26 @@
       <c r="EC42"/>
     </row>
     <row r="43" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="84" t="s">
+      <c r="J43" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="84"/>
+      <c r="K43" s="50"/>
       <c r="L43" s="28">
         <v>10</v>
       </c>
-      <c r="M43" s="83">
+      <c r="M43" s="51">
         <f>INT(M42*L43/100)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="83"/>
+      <c r="N43" s="51"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
@@ -5581,26 +5584,26 @@
       <c r="EC43"/>
     </row>
     <row r="44" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="86" t="s">
+      <c r="J44" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="86"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="87">
+      <c r="M44" s="54">
         <f>M42+M43</f>
         <v>0</v>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="54"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
@@ -5856,17 +5859,17 @@
       <c r="B46" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
@@ -5971,17 +5974,17 @@
       <c r="A47" s="13"/>
       <c r="B47" s="45"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
@@ -6085,17 +6088,17 @@
     <row r="48" spans="1:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="45"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -6217,17 +6220,17 @@
     <row r="49" spans="2:133" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
@@ -6349,17 +6352,17 @@
     <row r="50" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="36"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
       <c r="O50" s="46"/>
       <c r="Q50"/>
       <c r="R50"/>
@@ -6482,17 +6485,17 @@
     <row r="51" spans="2:133" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="37"/>
       <c r="C51" s="31"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
       <c r="O51" s="47"/>
       <c r="Q51"/>
       <c r="R51"/>
@@ -6734,85 +6737,12 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="D46:N51"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:N6"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
@@ -6827,12 +6757,85 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:N6"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D46:N51"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
